--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_024.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_024.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295003AA1.05) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station batteries</t>
-  </si>
-  <si>
-    <t>(295030EK2.06) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup system(s)</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295001AA1.09) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(600000AK2.09) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Installed fire suppression systems</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295019AK2.13) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295021AA1.07) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(295023AK2.01) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel handling equipment</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295037EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295005AA1.09) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295031EK2.01) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(295008AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Feed flow/steam flow mismatch</t>
-  </si>
-  <si>
-    <t>(295032EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295017AA1.01) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Radwaste</t>
-  </si>
-  <si>
-    <t>(500000EK2.01) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Containment hydrogen monitors</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(211000A2.03) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power failures</t>
-  </si>
-  <si>
-    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
-  </si>
-  <si>
-    <t>(217000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(263000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Grounds</t>
-  </si>
-  <si>
-    <t>(262001A4.07) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Tap changers</t>
-  </si>
-  <si>
-    <t>(215004K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) SRMS/IRM overlap</t>
-  </si>
-  <si>
-    <t>(223002K4.08) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual defeating of selected isolations during specified emergency conditions</t>
-  </si>
-  <si>
-    <t>(215003A3.04) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block signals</t>
-  </si>
-  <si>
-    <t>(400000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(261000K2.02) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system motor-operated valves/dampers</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
-  </si>
-  <si>
-    <t>(212000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Valve position</t>
-  </si>
-  <si>
-    <t>(209002K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
-  </si>
-  <si>
-    <t>(205000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(264000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Fuel consumption rate</t>
-  </si>
-  <si>
-    <t>(215005K4.04) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) LPRM detector replacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(203000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) System initiation sequence </t>
-  </si>
-  <si>
-    <t>(218000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCS system</t>
+    <t>(295026EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) LPCS</t>
+  </si>
+  <si>
+    <t>(295024EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell flooding</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(700000AK2.08) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Main turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
+  </si>
+  <si>
+    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(295038EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
+  </si>
+  <si>
+    <t>(295019AK2.09) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Primary containment and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295027EK2.07) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Hydrogen recombiners</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA1.04) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
+  </si>
+  <si>
+    <t>(295030EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Steam condensation</t>
+  </si>
+  <si>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295031EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) High-pressure core spray</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295036EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Maximum normal operating limit</t>
+  </si>
+  <si>
+    <t>(295034EK2.01) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Blowout panels</t>
+  </si>
+  <si>
+    <t>(295029EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Lowering suppression pool water level</t>
+  </si>
+  <si>
+    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
+  </si>
+  <si>
+    <t>(259002A3.08) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) FWCI system initiation</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(263000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Hydrogen generation</t>
+  </si>
+  <si>
+    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
+  </si>
+  <si>
+    <t>(203000A4.05) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
+  </si>
+  <si>
+    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
+  </si>
+  <si>
+    <t>(300000K4.03) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Compressor automatic starts/trips</t>
+  </si>
+  <si>
+    <t>(218000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(215005A2.07) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels flow mismatch</t>
+  </si>
+  <si>
+    <t>(217000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(223002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(264000A3.05) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Load shedding and sequencing</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291001K1.10) VALVES (CFR: 41.3) Principles of operation and purpose of check valves</t>
+  </si>
+  <si>
+    <t>(211000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Accumulator operation</t>
   </si>
   <si>
     <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
   </si>
   <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (291008K1.12) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Trip indicators for circuit breakers and protective relays</t>
-  </si>
-  <si>
-    <t>(211000A2.09) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic or manual initiation failure</t>
-  </si>
-  <si>
-    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
-  </si>
-  <si>
-    <t>(217000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor vessel pressure</t>
-  </si>
-  <si>
-    <t>(263000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Degraded voltage</t>
-  </si>
-  <si>
-    <t>(215001K2.02) (SF7 TIP) TRAVERSING IN CORE PROBE Knowledge of electrical power supplies to the following: (CFR: 41.7) Ball valves (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(234000A2.11) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Mechanically bound fuel assembly</t>
-  </si>
-  <si>
-    <t>(286000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Fire dampers</t>
-  </si>
-  <si>
-    <t>(245000K3.04) Knowledge of the effect that a loss or malfunction of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Feedwater system</t>
-  </si>
-  <si>
-    <t>(230000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(204000A4.01) Ability to manually operate and/or monitor the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System pumps</t>
-  </si>
-  <si>
-    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
-  </si>
-  <si>
-    <t>(223001K4.02) Knowledge of (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES design features and/or interlocks that provide for the following: (CFR: 41.7) Contains fission products after a LOCA</t>
-  </si>
-  <si>
-    <t>(272000A3.01) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Main steam radiation alarms</t>
-  </si>
-  <si>
-    <t>(241000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+    <t>(212000A4.01) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System actuation</t>
+  </si>
+  <si>
+    <t>(209001K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Keep fill system</t>
+  </si>
+  <si>
+    <t>(215003K4.03) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Gamma compensation</t>
+  </si>
+  <si>
+    <t>(209002K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(262001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System frequency</t>
+  </si>
+  <si>
+    <t>(259002A3.06) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Reactor water level setpoint setdown following a reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Ground detection</t>
+  </si>
+  <si>
+    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
+  </si>
+  <si>
+    <t>(271000K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Hydrogen water chemistry system</t>
+  </si>
+  <si>
+    <t>(233000A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(272000A3.12) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Process radiation monitor isolations</t>
+  </si>
+  <si>
+    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (291007K1.08) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Demineralizer D/P to determine condition of demineralizer resin bed</t>
+  </si>
+  <si>
+    <t>(201003K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) How control rods affect shutdown margin</t>
+  </si>
+  <si>
+    <t>(256000K2.01) (SF2 CDS) CONDENSATE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201005A4.05) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypassing a rod drive in rod gang drive system </t>
+  </si>
+  <si>
+    <t>(202001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(204000K4.03) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Overtemperature protection for system components</t>
+  </si>
+  <si>
+    <t>(239003K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation system</t>
+  </si>
+  <si>
+    <t>(239001A2.04) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line low pressure</t>
+  </si>
+  <si>
+    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
+  </si>
+  <si>
+    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
+  </si>
+  <si>
+    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293009K1.20) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the mode of fuel failure for CPR</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295017AA2.05) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(218000A2.01) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(259001A2.12) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Heater drain pump trip</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(292008K1.23) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the necessity for rod pattern exchanges</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(293009K1.11) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Explain the basis of the limiting condition for APLGHR</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215003A2.03) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202001A2.14) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High reactor pressure (ATWS circuitry initiation)</t>
-  </si>
-  <si>
-    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(239001A2.07) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam area high temperature</t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>600000</t>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295031</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295008</t>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295029</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
     <t>295017</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>201005</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>268000</t>
   </si>
   <si>
     <t>234000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>239001</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D37" t="s">
         <v>106</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>106</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D54" t="s">
         <v>106</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>4.1</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2415,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
